--- a/all/View_Mode.xlsx
+++ b/all/View_Mode.xlsx
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/all/View_Mode.xlsx
+++ b/all/View_Mode.xlsx
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
